--- a/NunitTutorial/Asset/Login.xlsx
+++ b/NunitTutorial/Asset/Login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Password</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>testing123$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msuite49_Dontdisturbteaher01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing123$ </t>
+  </si>
+  <si>
+    <t>stud1_test01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSuite49win10chrome_teacher07 </t>
   </si>
 </sst>
 </file>
@@ -384,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,7 +432,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
